--- a/VulnerabilityMapping/Oyente.xlsx
+++ b/VulnerabilityMapping/Oyente.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D06351-90BC-4C4A-A9B5-4841AFCE350B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD26DE9-D26A-4C43-960D-EA7C2A865BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Original Vulnerability</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>money-concurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,7 +498,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -527,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
